--- a/Resources/2011/Advanced_Percentile_2011.xlsx
+++ b/Resources/2011/Advanced_Percentile_2011.xlsx
@@ -1501,13 +1501,13 @@
     <t>Ryan Anderson</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Chris Bosh</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Tim Duncan</t>
@@ -1537,7 +1537,7 @@
     <t>Lou Williams</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Elton Brand</t>
@@ -1567,7 +1567,7 @@
     <t>Wesley Matthews</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Marc Gasol</t>
@@ -1732,7 +1732,7 @@
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Devin Ebanks</t>
@@ -1948,7 +1948,7 @@
     <t>Shannon Brown</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>C.J. Miles</t>
@@ -2065,7 +2065,7 @@
     <t>Goran Dragic</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Maurice Ager</t>
